--- a/REGULAR/OJT/NEW DONE/PENANO, DARYL BAMBI B..xlsx
+++ b/REGULAR/OJT/NEW DONE/PENANO, DARYL BAMBI B..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BADBCE-A028-4B99-9903-5466A91C55FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ECECD5-ADFF-45FE-93D4-6084DDE4E9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>SOLO P(1-0-0)</t>
+  </si>
+  <si>
+    <t>4/6,7,8/2023</t>
   </si>
 </sst>
 </file>
@@ -599,6 +602,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,9 +640,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3004,7 +3007,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="N15" sqref="N15"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3026,64 +3029,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3109,18 +3112,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3167,7 +3170,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.5</v>
+        <v>25.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3177,7 +3180,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>38.5</v>
+        <v>36.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4022,7 +4025,7 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="61">
+      <c r="K50" s="49">
         <v>44931</v>
       </c>
     </row>
@@ -4057,13 +4060,15 @@
         <v>44986</v>
       </c>
       <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
@@ -4074,7 +4079,9 @@
       <c r="A53" s="40">
         <v>45017</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
@@ -4083,10 +4090,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="39">
+        <v>3</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
@@ -5572,17 +5583,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -5657,12 +5668,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/OJT/NEW DONE/PENANO, DARYL BAMBI B..xlsx
+++ b/REGULAR/OJT/NEW DONE/PENANO, DARYL BAMBI B..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ECECD5-ADFF-45FE-93D4-6084DDE4E9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -225,11 +224,17 @@
   <si>
     <t>4/6,7,8/2023</t>
   </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/24-26/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1089,7 +1094,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,7 +1137,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1201,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1261,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1327,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1390,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1488,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1547,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1612,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1655,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1730,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1916,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1982,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2040,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2106,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2162,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2237,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2280,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2346,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2402,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2500,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2563,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,25 +2629,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2654,13 +2659,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2669,14 +2674,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2980,7 +2985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2990,7 +2995,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2998,34 +3003,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A42" activePane="bottomLeft"/>
-      <selection activeCell="N15" sqref="N15"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A42" activePane="bottomLeft"/>
+      <selection activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3046,7 +3051,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3066,7 +3071,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3088,7 +3093,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3096,7 +3101,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3109,7 +3114,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3126,7 +3131,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3170,7 +3175,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>25.75</v>
+        <v>27</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3180,12 +3185,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.75</v>
+        <v>38</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3207,7 +3212,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43831</v>
       </c>
@@ -3227,7 +3232,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43862</v>
       </c>
@@ -3247,7 +3252,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43891</v>
       </c>
@@ -3267,7 +3272,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43922</v>
       </c>
@@ -3287,7 +3292,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43952</v>
       </c>
@@ -3307,7 +3312,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43983</v>
       </c>
@@ -3327,7 +3332,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44013</v>
       </c>
@@ -3347,7 +3352,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44044</v>
       </c>
@@ -3367,7 +3372,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44075</v>
       </c>
@@ -3387,7 +3392,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44105</v>
       </c>
@@ -3407,7 +3412,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44136</v>
       </c>
@@ -3427,7 +3432,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44166</v>
       </c>
@@ -3451,7 +3456,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
@@ -3466,7 +3471,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44197</v>
       </c>
@@ -3486,7 +3491,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44228</v>
       </c>
@@ -3506,7 +3511,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44256</v>
       </c>
@@ -3526,7 +3531,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44287</v>
       </c>
@@ -3546,7 +3551,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44317</v>
       </c>
@@ -3566,7 +3571,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44348</v>
       </c>
@@ -3586,7 +3591,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44378</v>
       </c>
@@ -3606,7 +3611,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44409</v>
       </c>
@@ -3626,7 +3631,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44440</v>
       </c>
@@ -3646,7 +3651,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44470</v>
       </c>
@@ -3666,7 +3671,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44501</v>
       </c>
@@ -3686,7 +3691,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44531</v>
       </c>
@@ -3710,7 +3715,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>45</v>
       </c>
@@ -3725,7 +3730,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44562</v>
       </c>
@@ -3751,7 +3756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44593</v>
       </c>
@@ -3771,7 +3776,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44621</v>
       </c>
@@ -3791,7 +3796,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44652</v>
       </c>
@@ -3811,7 +3816,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44682</v>
       </c>
@@ -3835,7 +3840,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44713</v>
       </c>
@@ -3855,7 +3860,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44743</v>
       </c>
@@ -3881,7 +3886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44774</v>
       </c>
@@ -3901,7 +3906,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44805</v>
       </c>
@@ -3927,7 +3932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44835</v>
       </c>
@@ -3947,7 +3952,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44866</v>
       </c>
@@ -3967,7 +3972,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44896</v>
       </c>
@@ -3987,7 +3992,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>58</v>
       </c>
@@ -4005,7 +4010,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44927</v>
       </c>
@@ -4029,7 +4034,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44958</v>
       </c>
@@ -4055,7 +4060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44986</v>
       </c>
@@ -4075,20 +4080,22 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>45017</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39">
         <v>3</v>
@@ -4099,11 +4106,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>45047</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
@@ -4115,9 +4124,11 @@
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45078</v>
       </c>
@@ -4135,7 +4146,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>45108</v>
       </c>
@@ -4153,7 +4164,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>45139</v>
       </c>
@@ -4171,7 +4182,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>45170</v>
       </c>
@@ -4189,7 +4200,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>45200</v>
       </c>
@@ -4207,7 +4218,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>45231</v>
       </c>
@@ -4225,7 +4236,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>45261</v>
       </c>
@@ -4243,7 +4254,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>45292</v>
       </c>
@@ -4261,7 +4272,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>45323</v>
       </c>
@@ -4279,7 +4290,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>45352</v>
       </c>
@@ -4297,7 +4308,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>45383</v>
       </c>
@@ -4315,7 +4326,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>45413</v>
       </c>
@@ -4333,7 +4344,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45444</v>
       </c>
@@ -4351,7 +4362,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45474</v>
       </c>
@@ -4369,7 +4380,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>45505</v>
       </c>
@@ -4387,7 +4398,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45536</v>
       </c>
@@ -4405,7 +4416,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45566</v>
       </c>
@@ -4423,7 +4434,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45597</v>
       </c>
@@ -4441,7 +4452,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>45627</v>
       </c>
@@ -4459,7 +4470,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45658</v>
       </c>
@@ -4477,7 +4488,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>45689</v>
       </c>
@@ -4495,7 +4506,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45717</v>
       </c>
@@ -4513,7 +4524,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>45748</v>
       </c>
@@ -4531,7 +4542,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45778</v>
       </c>
@@ -4549,7 +4560,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45809</v>
       </c>
@@ -4567,7 +4578,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45839</v>
       </c>
@@ -4585,7 +4596,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45870</v>
       </c>
@@ -4603,7 +4614,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45901</v>
       </c>
@@ -4621,7 +4632,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45931</v>
       </c>
@@ -4639,7 +4650,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45962</v>
       </c>
@@ -4657,7 +4668,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45992</v>
       </c>
@@ -4675,7 +4686,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>46023</v>
       </c>
@@ -4693,7 +4704,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>46054</v>
       </c>
@@ -4711,7 +4722,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>46082</v>
       </c>
@@ -4729,7 +4740,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>46113</v>
       </c>
@@ -4747,7 +4758,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>46143</v>
       </c>
@@ -4765,7 +4776,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>46174</v>
       </c>
@@ -4783,7 +4794,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>46204</v>
       </c>
@@ -4801,7 +4812,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>46235</v>
       </c>
@@ -4819,7 +4830,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>46266</v>
       </c>
@@ -4837,7 +4848,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>46296</v>
       </c>
@@ -4855,7 +4866,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>46327</v>
       </c>
@@ -4873,7 +4884,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>46357</v>
       </c>
@@ -4891,7 +4902,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>46388</v>
       </c>
@@ -4909,7 +4920,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>46419</v>
       </c>
@@ -4927,7 +4938,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>46447</v>
       </c>
@@ -4945,7 +4956,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>46478</v>
       </c>
@@ -4963,7 +4974,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>46508</v>
       </c>
@@ -4981,7 +4992,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>46539</v>
       </c>
@@ -4999,7 +5010,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>46569</v>
       </c>
@@ -5017,7 +5028,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>46600</v>
       </c>
@@ -5035,7 +5046,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>46631</v>
       </c>
@@ -5053,7 +5064,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>46661</v>
       </c>
@@ -5071,7 +5082,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>46692</v>
       </c>
@@ -5089,7 +5100,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>46722</v>
       </c>
@@ -5107,7 +5118,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>46753</v>
       </c>
@@ -5125,7 +5136,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>46784</v>
       </c>
@@ -5143,7 +5154,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>46813</v>
       </c>
@@ -5161,7 +5172,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>46844</v>
       </c>
@@ -5179,7 +5190,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>46874</v>
       </c>
@@ -5197,7 +5208,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>46905</v>
       </c>
@@ -5215,7 +5226,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46935</v>
       </c>
@@ -5233,7 +5244,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46966</v>
       </c>
@@ -5251,7 +5262,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46997</v>
       </c>
@@ -5269,7 +5280,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>47027</v>
       </c>
@@ -5287,7 +5298,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>47058</v>
       </c>
@@ -5305,7 +5316,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>47088</v>
       </c>
@@ -5323,7 +5334,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>47119</v>
       </c>
@@ -5341,7 +5352,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>47150</v>
       </c>
@@ -5359,7 +5370,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5375,7 +5386,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5391,7 +5402,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5407,7 +5418,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5423,7 +5434,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5439,7 +5450,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5455,7 +5466,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5471,7 +5482,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5487,7 +5498,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5503,7 +5514,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5534,10 +5545,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5560,7 +5571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5568,21 +5579,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5595,7 +5606,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5624,7 +5635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5644,17 +5655,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5675,7 +5686,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5702,7 +5713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5728,7 +5739,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5754,7 +5765,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5780,7 +5791,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5806,7 +5817,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5832,7 +5843,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5858,7 +5869,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5884,7 +5895,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5904,7 +5915,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5924,7 +5935,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5944,7 +5955,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5965,7 +5976,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5986,7 +5997,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6007,7 +6018,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6028,7 +6039,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6049,7 +6060,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6070,7 +6081,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6091,7 +6102,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6112,7 +6123,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6133,7 +6144,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6154,7 +6165,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6175,7 +6186,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6196,7 +6207,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6217,7 +6228,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6238,7 +6249,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6259,7 +6270,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6280,7 +6291,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6301,7 +6312,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6322,7 +6333,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6343,7 +6354,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6364,7 +6375,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6373,7 +6384,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6382,7 +6393,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6391,7 +6402,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6400,7 +6411,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6409,7 +6420,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6418,7 +6429,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6427,7 +6438,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6436,7 +6447,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6445,7 +6456,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6454,7 +6465,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6463,7 +6474,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6472,7 +6483,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6481,7 +6492,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6490,7 +6501,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6499,7 +6510,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6508,7 +6519,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6517,7 +6528,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6526,7 +6537,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6535,7 +6546,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6544,7 +6555,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6553,7 +6564,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6562,7 +6573,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6571,7 +6582,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6580,7 +6591,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6589,7 +6600,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6598,7 +6609,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6607,7 +6618,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6616,7 +6627,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6625,7 +6636,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/PENANO, DARYL BAMBI B..xlsx
+++ b/REGULAR/OJT/NEW DONE/PENANO, DARYL BAMBI B..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>5/24-26/2023</t>
+  </si>
+  <si>
+    <t>5/8-10/2023</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1097,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1140,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1204,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,7 +1264,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1330,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1393,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1491,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1550,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1615,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1658,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1733,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1919,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1985,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2043,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2109,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2165,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2240,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2283,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2349,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2405,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2503,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2566,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2632,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3007,12 +3010,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,7 +3188,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4129,10 +4132,10 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B55" s="20"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
@@ -4141,14 +4144,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="39"/>
+      <c r="H55" s="39">
+        <v>3</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
+      <c r="K55" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4166,7 +4173,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4184,7 +4191,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4202,7 +4209,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4220,7 +4227,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4238,7 +4245,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4256,7 +4263,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4274,7 +4281,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4292,7 +4299,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4310,7 +4317,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4328,7 +4335,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4346,7 +4353,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4364,7 +4371,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4382,7 +4389,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4400,7 +4407,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4418,7 +4425,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4436,7 +4443,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4454,7 +4461,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4472,7 +4479,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4490,7 +4497,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4508,7 +4515,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4526,7 +4533,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4544,7 +4551,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4562,7 +4569,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4580,7 +4587,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4598,7 +4605,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4616,7 +4623,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4634,7 +4641,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4652,7 +4659,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4670,7 +4677,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4688,7 +4695,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4706,7 +4713,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4724,7 +4731,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4742,7 +4749,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4760,7 +4767,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4778,7 +4785,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4796,7 +4803,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4814,7 +4821,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4832,7 +4839,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4850,7 +4857,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4868,7 +4875,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4886,7 +4893,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4904,7 +4911,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4922,7 +4929,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4940,7 +4947,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4958,7 +4965,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4976,7 +4983,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4994,7 +5001,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5012,7 +5019,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5030,7 +5037,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5048,7 +5055,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5066,7 +5073,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5084,7 +5091,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5102,7 +5109,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5120,7 +5127,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5138,7 +5145,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5156,7 +5163,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5174,7 +5181,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5192,7 +5199,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5210,7 +5217,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5228,7 +5235,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5246,7 +5253,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5264,7 +5271,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5282,7 +5289,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5300,7 +5307,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5318,7 +5325,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5336,7 +5343,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5354,7 +5361,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5371,7 +5378,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>47150</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5515,20 +5524,36 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/PENANO, DARYL BAMBI B..xlsx
+++ b/REGULAR/OJT/NEW DONE/PENANO, DARYL BAMBI B..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D893FA-3796-4613-97C9-C18628BB6B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -233,11 +234,17 @@
   <si>
     <t>5/8-10/2023</t>
   </si>
+  <si>
+    <t>SOLO P(3-0-0)</t>
+  </si>
+  <si>
+    <t>6/24, 25,27/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1097,7 +1104,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1147,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,7 +1211,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1271,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1337,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1400,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,7 +1498,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1557,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1622,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1665,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,7 +1740,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1926,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1992,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2050,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2116,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2172,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2247,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2290,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2356,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2412,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2510,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2573,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2622,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2632,25 +2639,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2662,13 +2669,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2677,14 +2684,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2988,7 +2995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2998,7 +3005,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3006,34 +3013,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A42" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A48" activePane="bottomLeft"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3054,7 +3061,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3074,7 +3081,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3096,7 +3103,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3104,7 +3111,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3117,7 +3124,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3134,7 +3141,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3169,7 +3176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3178,7 +3185,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27</v>
+        <v>28.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3188,12 +3195,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>35</v>
+        <v>36.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3215,7 +3222,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43831</v>
       </c>
@@ -3235,7 +3242,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43862</v>
       </c>
@@ -3255,7 +3262,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43891</v>
       </c>
@@ -3275,7 +3282,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43922</v>
       </c>
@@ -3295,7 +3302,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43952</v>
       </c>
@@ -3315,7 +3322,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43983</v>
       </c>
@@ -3335,7 +3342,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>44013</v>
       </c>
@@ -3355,7 +3362,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44044</v>
       </c>
@@ -3375,7 +3382,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44075</v>
       </c>
@@ -3395,7 +3402,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44105</v>
       </c>
@@ -3415,7 +3422,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44136</v>
       </c>
@@ -3435,7 +3442,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44166</v>
       </c>
@@ -3459,7 +3466,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
@@ -3474,7 +3481,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44197</v>
       </c>
@@ -3494,7 +3501,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44228</v>
       </c>
@@ -3514,7 +3521,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44256</v>
       </c>
@@ -3534,7 +3541,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44287</v>
       </c>
@@ -3554,7 +3561,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44317</v>
       </c>
@@ -3574,7 +3581,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44348</v>
       </c>
@@ -3594,7 +3601,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44378</v>
       </c>
@@ -3614,7 +3621,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44409</v>
       </c>
@@ -3634,7 +3641,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44440</v>
       </c>
@@ -3654,7 +3661,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44470</v>
       </c>
@@ -3674,7 +3681,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44501</v>
       </c>
@@ -3694,7 +3701,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44531</v>
       </c>
@@ -3718,7 +3725,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>45</v>
       </c>
@@ -3733,7 +3740,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44562</v>
       </c>
@@ -3759,7 +3766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44593</v>
       </c>
@@ -3779,7 +3786,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44621</v>
       </c>
@@ -3799,7 +3806,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44652</v>
       </c>
@@ -3819,7 +3826,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44682</v>
       </c>
@@ -3843,7 +3850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44713</v>
       </c>
@@ -3863,7 +3870,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44743</v>
       </c>
@@ -3889,7 +3896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44774</v>
       </c>
@@ -3909,7 +3916,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44805</v>
       </c>
@@ -3935,7 +3942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44835</v>
       </c>
@@ -3955,7 +3962,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44866</v>
       </c>
@@ -3975,7 +3982,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44896</v>
       </c>
@@ -3995,7 +4002,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>58</v>
       </c>
@@ -4013,7 +4020,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44927</v>
       </c>
@@ -4037,7 +4044,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44958</v>
       </c>
@@ -4063,7 +4070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44986</v>
       </c>
@@ -4083,7 +4090,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>45017</v>
       </c>
@@ -4109,20 +4116,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>45047</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
@@ -4131,7 +4140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>48</v>
@@ -4153,11 +4162,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B56" s="20"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="40"/>
+      <c r="B56" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
       <c r="E56" s="9"/>
@@ -4169,11 +4178,13 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4189,9 +4200,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4207,9 +4218,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4225,9 +4236,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4243,9 +4254,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4261,9 +4272,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4279,9 +4290,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4297,9 +4308,9 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4315,9 +4326,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4333,9 +4344,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4351,9 +4362,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4369,9 +4380,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4387,9 +4398,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4405,9 +4416,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4423,9 +4434,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4441,9 +4452,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4459,9 +4470,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4477,9 +4488,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4495,9 +4506,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4513,9 +4524,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4531,9 +4542,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4549,9 +4560,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4567,9 +4578,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4585,9 +4596,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4603,9 +4614,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4621,9 +4632,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4639,9 +4650,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4657,9 +4668,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4675,9 +4686,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4693,9 +4704,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4711,9 +4722,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4729,9 +4740,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4747,9 +4758,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4765,9 +4776,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4783,9 +4794,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4801,9 +4812,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4819,9 +4830,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4837,9 +4848,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4855,9 +4866,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4873,9 +4884,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4891,9 +4902,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4909,9 +4920,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4927,9 +4938,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4945,9 +4956,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4963,9 +4974,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4981,9 +4992,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4999,9 +5010,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5017,9 +5028,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5035,9 +5046,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5053,9 +5064,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5071,9 +5082,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5089,9 +5100,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5107,9 +5118,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5125,9 +5136,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5143,9 +5154,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5161,9 +5172,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5179,9 +5190,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5197,9 +5208,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5215,9 +5226,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5233,9 +5244,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5251,9 +5262,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5269,9 +5280,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5287,9 +5298,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5305,9 +5316,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5323,9 +5334,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5341,9 +5352,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5359,9 +5370,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5377,9 +5388,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5395,8 +5406,10 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40">
+        <v>47150</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5411,7 +5424,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5427,7 +5440,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5443,7 +5456,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5459,7 +5472,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5475,7 +5488,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5491,7 +5504,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5507,7 +5520,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5523,7 +5536,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5539,21 +5552,37 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5570,10 +5599,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5596,7 +5625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5604,21 +5633,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5631,7 +5660,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5660,7 +5689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5680,17 +5709,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5711,7 +5740,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5738,7 +5767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5764,7 +5793,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5790,7 +5819,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5816,7 +5845,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5842,7 +5871,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5868,7 +5897,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5894,7 +5923,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5920,7 +5949,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5940,7 +5969,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5960,7 +5989,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5980,7 +6009,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6001,7 +6030,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6022,7 +6051,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6043,7 +6072,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6064,7 +6093,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6085,7 +6114,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6106,7 +6135,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6127,7 +6156,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6148,7 +6177,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6169,7 +6198,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6190,7 +6219,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6211,7 +6240,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6232,7 +6261,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6253,7 +6282,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6274,7 +6303,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6295,7 +6324,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6316,7 +6345,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6337,7 +6366,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6358,7 +6387,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6379,7 +6408,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6400,7 +6429,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6409,7 +6438,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6418,7 +6447,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6427,7 +6456,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6436,7 +6465,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6445,7 +6474,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6454,7 +6483,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6463,7 +6492,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6472,7 +6501,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6481,7 +6510,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6490,7 +6519,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6499,7 +6528,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6508,7 +6537,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6517,7 +6546,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6526,7 +6555,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6535,7 +6564,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6544,7 +6573,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6553,7 +6582,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6562,7 +6591,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6571,7 +6600,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6580,7 +6609,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6589,7 +6618,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6598,7 +6627,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6607,7 +6636,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6616,7 +6645,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6625,7 +6654,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6634,7 +6663,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6643,7 +6672,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6652,7 +6681,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6661,7 +6690,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
